--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/PHRONESIS/4.46/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/PHRONESIS/4.46/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/Desktop/validazione/Caricamento SMART/PHRONESIS/DA CARICARE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="13_ncr:1_{8E096896-1A5D-440F-9CDB-C984B19F7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B0164C0-7F5A-443D-A107-F2110D69FE98}"/>
+  <xr:revisionPtr revIDLastSave="523" documentId="13_ncr:1_{8E096896-1A5D-440F-9CDB-C984B19F7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{655FBA12-887D-4B55-957C-3591FF856002}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1776,16 +1776,16 @@
     <t>Non è possibile valorizzare il codice in questione con un valore diverso da S quindi l'utente non può mai incorrere in questo errore / scenario</t>
   </si>
   <si>
-    <t>2025-04-30T10:19:09Z</t>
-  </si>
-  <si>
-    <t>990336e02027f2f9ae025ed5fd87aa07</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.acae46209f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Come da email del 13/01/2025 di Segreteria Tecnica FSE - Andrea Di Pietra con oggetto Oggetto: FSE 2.0 - Richiesta di sollecito accreditamento applicativi (cha ha superato il Test 0) , dove si specifica che "il superamento della fase 1 del processo di accreditamento è ritenuto valido se l’applicativo supera almeno il caso di test 1, tra quelli attualmente previsti per il Profilo Sanitario Sintetico sul sito di GitHub Test Case Profilo Sanitario Sintetico."</t>
+  </si>
+  <si>
+    <t>2025-05-13T11:58:50Z</t>
+  </si>
+  <si>
+    <t>305de70dfc13e2d207ac64358eecc665</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.561d7c467f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3957,10 +3957,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F189" sqref="F189:W189"/>
+      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10205,16 +10205,16 @@
         <v>247</v>
       </c>
       <c r="F167" s="46">
-        <v>45777</v>
+        <v>45790</v>
       </c>
       <c r="G167" s="47" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H167" s="47" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I167" s="47" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J167" s="48" t="s">
         <v>64</v>
@@ -10262,7 +10262,7 @@
         <v>243</v>
       </c>
       <c r="L168" s="38" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M168" s="38"/>
       <c r="N168" s="38"/>
@@ -11045,7 +11045,7 @@
         <v>243</v>
       </c>
       <c r="L189" s="38" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M189" s="35"/>
       <c r="N189" s="35"/>

--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/PHRONESIS/4.46/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/PHRONESIS/4.46/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/Desktop/validazione/Caricamento SMART/PHRONESIS/DA CARICARE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele.Romanazzi\Downloads\invio 16 maggio 2025\invio 16 maggio 2025\PHRONESIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="523" documentId="13_ncr:1_{8E096896-1A5D-440F-9CDB-C984B19F7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{655FBA12-887D-4B55-957C-3591FF856002}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D17509-7427-47B0-8B1F-AE846EF26612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="463">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1734,9 +1734,6 @@
     <t>Il medico clicca su "OK" sulla finestra di errore quindi può ritentare l'invio</t>
   </si>
   <si>
-    <t>Non eseguito</t>
-  </si>
-  <si>
     <t>Il nostro sw non permette di incorrere in questo caso in quanto anche se assenti in cartella clinica la città di residenza/domicilio del paziente il campo "city" viene sempre inviato vuoto essendo obbligatorio</t>
   </si>
   <si>
@@ -1786,6 +1783,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.561d7c467f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Il nostro sw non permette all'utente di poter evitare di inserire il livello di riservatezza in quanto il dato è obbligatorio e di default valorizzato a "N"</t>
+  </si>
+  <si>
+    <t>Il nostro sw non permette di inviare un CF paziente non conforme o con caratteri minuscoli</t>
   </si>
 </sst>
 </file>
@@ -2578,10 +2581,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3957,10 +3956,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
+      <selection pane="bottomRight" activeCell="L189" sqref="L189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8903,8 +8902,8 @@
       <c r="K134" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L134" s="38" t="s">
-        <v>444</v>
+      <c r="L134" t="s">
+        <v>462</v>
       </c>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -8947,7 +8946,7 @@
         <v>243</v>
       </c>
       <c r="L135" s="45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -8990,7 +8989,7 @@
         <v>243</v>
       </c>
       <c r="L136" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -9033,7 +9032,7 @@
         <v>243</v>
       </c>
       <c r="L137" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -9076,7 +9075,7 @@
         <v>243</v>
       </c>
       <c r="L138" s="45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -9119,7 +9118,7 @@
         <v>243</v>
       </c>
       <c r="L139" s="45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
@@ -9162,7 +9161,7 @@
         <v>243</v>
       </c>
       <c r="L140" s="45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
@@ -9205,7 +9204,7 @@
         <v>243</v>
       </c>
       <c r="L141" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
@@ -9248,7 +9247,7 @@
         <v>243</v>
       </c>
       <c r="L142" s="45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -9291,7 +9290,7 @@
         <v>243</v>
       </c>
       <c r="L143" s="45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -9334,7 +9333,7 @@
         <v>243</v>
       </c>
       <c r="L144" s="45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -9377,7 +9376,7 @@
         <v>243</v>
       </c>
       <c r="L145" s="45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M145" s="38"/>
       <c r="N145" s="38"/>
@@ -9420,7 +9419,7 @@
         <v>243</v>
       </c>
       <c r="L146" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M146" s="38"/>
       <c r="N146" s="38"/>
@@ -9463,7 +9462,7 @@
         <v>243</v>
       </c>
       <c r="L147" s="45" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
@@ -9506,7 +9505,7 @@
         <v>243</v>
       </c>
       <c r="L148" s="45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M148" s="38"/>
       <c r="N148" s="38"/>
@@ -10208,13 +10207,13 @@
         <v>45790</v>
       </c>
       <c r="G167" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="H167" s="47" t="s">
         <v>459</v>
       </c>
-      <c r="H167" s="47" t="s">
+      <c r="I167" s="47" t="s">
         <v>460</v>
-      </c>
-      <c r="I167" s="47" t="s">
-        <v>461</v>
       </c>
       <c r="J167" s="48" t="s">
         <v>64</v>
@@ -10262,7 +10261,7 @@
         <v>243</v>
       </c>
       <c r="L168" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M168" s="38"/>
       <c r="N168" s="38"/>
@@ -11044,8 +11043,8 @@
       <c r="K189" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="L189" s="38" t="s">
-        <v>458</v>
+      <c r="L189" t="s">
+        <v>461</v>
       </c>
       <c r="M189" s="35"/>
       <c r="N189" s="35"/>
@@ -17545,15 +17544,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17811,7 +17801,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -17823,15 +17813,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17850,7 +17841,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -17867,6 +17858,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{fbf47bbe-a0a2-4c04-9ba4-22f94012202d}" enabled="1" method="Standard" siteId="{69602cf4-a76e-4265-955f-03c329c50608}" removed="0"/>
